--- a/dados.xlsx
+++ b/dados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Matlab</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lua</t>
   </si>
 </sst>
 </file>
@@ -142,13 +145,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -163,11 +166,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -183,11 +189,14 @@
       <c r="D2" s="1" t="n">
         <v>2.13268</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>2.136</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>1.762594</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>3.377</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -203,11 +212,14 @@
       <c r="D3" s="1" t="n">
         <v>2.11027</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>2.186</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>1.702463</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>8.458</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,11 +235,14 @@
       <c r="D4" s="1" t="n">
         <v>2.39989</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>1.915</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>1.59956</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>8.947</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,8 +261,11 @@
       <c r="E5" s="2" t="n">
         <v>2.102</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>1.372766</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>8.65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,11 +281,14 @@
       <c r="D6" s="1" t="n">
         <v>2.06228</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>2.116</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>1.617516</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>8.844</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,11 +304,14 @@
       <c r="D7" s="1" t="n">
         <v>2.12334</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>1.957</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>1.721015</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>9.336</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,11 +327,14 @@
       <c r="D8" s="1" t="n">
         <v>1.90926</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>2.005</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>1.572582</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>9.465</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -323,11 +350,14 @@
       <c r="D9" s="1" t="n">
         <v>2.11478</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>2.592</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>1.518812</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>9.613</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,11 +373,14 @@
       <c r="D10" s="1" t="n">
         <v>2.11024</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>1.923</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>1.54934</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>3.008</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,11 +396,14 @@
       <c r="D11" s="1" t="n">
         <v>2.19124</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>2.121</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>1.55474</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>8.78</v>
       </c>
     </row>
   </sheetData>
